--- a/standard3.xlsx
+++ b/standard3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\58298\Documents\GitHub\texaspoker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3389A462-248B-4DFB-A4DF-E90C7C7A2FEA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AC46A1-FB6D-45E7-BDF8-E54341269677}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,12 +97,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -122,18 +129,18 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
@@ -3489,18 +3496,18 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
@@ -3508,11 +3515,9 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="25400" cap="rnd">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:alpha val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -8173,18 +8178,18 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent3">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
@@ -8192,11 +8197,9 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="25400" cap="rnd">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:alpha val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -10790,18 +10793,18 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent4">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
@@ -10809,11 +10812,9 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="25400" cap="rnd">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:alpha val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -15210,18 +15211,18 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent5">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
@@ -15229,11 +15230,9 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="25400" cap="rnd">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:alpha val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -15244,11 +15243,9 @@
           </c:trendline>
           <c:trendline>
             <c:spPr>
-              <a:ln w="25400" cap="rnd">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:alpha val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -18784,18 +18781,18 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
@@ -18803,11 +18800,9 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="25400" cap="rnd">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:alpha val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -22793,21 +22788,20 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
@@ -22815,11 +22809,10 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="25400" cap="rnd">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:lumMod val="60000"/>
-                    <a:alpha val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -25966,21 +25959,20 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
@@ -25988,11 +25980,10 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="25400" cap="rnd">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2">
                     <a:lumMod val="60000"/>
-                    <a:alpha val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -30333,21 +30324,20 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
@@ -30355,11 +30345,10 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="25400" cap="rnd">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent3">
                     <a:lumMod val="60000"/>
-                    <a:alpha val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -33758,21 +33747,20 @@
           <c:idx val="9"/>
           <c:order val="9"/>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
@@ -33780,11 +33768,10 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="25400" cap="rnd">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent4">
                     <a:lumMod val="60000"/>
-                    <a:alpha val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -38299,38 +38286,19 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -38342,7 +38310,7 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -38370,23 +38338,12 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -38411,7 +38368,7 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -38435,7 +38392,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -38452,7 +38409,7 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -38476,20 +38433,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -38552,17 +38517,17 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -38570,9 +38535,20 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea>
@@ -38583,23 +38559,28 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -38607,7 +38588,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -38617,17 +38598,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -38636,131 +38614,72 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -38777,15 +38696,15 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -38797,22 +38716,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -38821,16 +38740,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -38839,13 +38759,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -38857,7 +38777,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -38865,27 +38785,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -38895,30 +38804,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -38927,16 +38822,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -38945,16 +38841,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -38964,7 +38860,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -38974,7 +38870,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -38982,7 +38878,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -38991,9 +38887,20 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -39001,13 +38908,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -39020,10 +38928,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -39032,14 +38948,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -39050,7 +38964,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -39060,21 +38974,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -39084,7 +38996,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -39094,7 +39006,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -39464,7 +39376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BGJ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
